--- a/tests/DATA/AllState.xlsx
+++ b/tests/DATA/AllState.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avelm\Desktop\RESTD Jenkins\tests\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7797DF-0758-41A1-9122-AA6326E3D7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1986661F-FD8F-40AA-9533-AFE039282097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RESDT" sheetId="1" r:id="rId1"/>
@@ -707,9 +707,6 @@
     <t>Cowboy Test</t>
   </si>
   <si>
-    <t>123 Wyoming WY usa</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -780,6 +777,9 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>123 wyoming wy usa wy</t>
   </si>
 </sst>
 </file>
@@ -1260,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4518,7 +4518,7 @@
         <v>46</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="Q42" s="30"/>
       <c r="R42" s="30"/>
@@ -4527,7 +4527,7 @@
       <c r="U42" s="30"/>
       <c r="V42" s="30"/>
       <c r="W42" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X42" s="17"/>
       <c r="Y42" s="17" t="s">
@@ -4538,10 +4538,10 @@
       <c r="AB42" s="17"/>
       <c r="AC42" s="17"/>
       <c r="AD42" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE42" s="18" t="s">
         <v>228</v>
-      </c>
-      <c r="AE42" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="AF42" s="26"/>
       <c r="AG42" s="26"/>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>41</v>
@@ -4722,7 +4722,7 @@
         <v>43</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F2" s="11">
         <v>46027</v>
@@ -4743,7 +4743,7 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
@@ -4797,7 +4797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA4839D-E343-4B21-BEE5-6C5EACB8C1D2}">
   <dimension ref="A1:AN6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -4931,7 +4931,7 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>41</v>
@@ -4943,7 +4943,7 @@
         <v>43</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F2" s="11">
         <v>46031</v>
@@ -4964,7 +4964,7 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
@@ -4973,7 +4973,7 @@
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X2" s="15"/>
       <c r="Y2" s="17" t="s">
@@ -4984,10 +4984,10 @@
       <c r="AB2" s="17"/>
       <c r="AC2" s="17"/>
       <c r="AD2" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AE2" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF2" s="26"/>
       <c r="AG2" s="26"/>
@@ -4998,7 +4998,7 @@
         <v>53</v>
       </c>
       <c r="AJ2" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AK2" s="21" t="s">
         <v>55</v>
@@ -5006,12 +5006,12 @@
       <c r="AL2" s="21"/>
       <c r="AM2" s="21"/>
       <c r="AN2" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>41</v>
@@ -5023,7 +5023,7 @@
         <v>43</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F3" s="11">
         <v>46031</v>
@@ -5044,7 +5044,7 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -5053,7 +5053,7 @@
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X3" s="15"/>
       <c r="Y3" s="17" t="s">
@@ -5064,10 +5064,10 @@
       <c r="AB3" s="17"/>
       <c r="AC3" s="17"/>
       <c r="AD3" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AE3" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF3" s="26"/>
       <c r="AG3" s="26"/>
@@ -5086,12 +5086,12 @@
       <c r="AL3" s="21"/>
       <c r="AM3" s="21"/>
       <c r="AN3" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>41</v>
@@ -5103,7 +5103,7 @@
         <v>43</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F4" s="11">
         <v>46031</v>
@@ -5124,7 +5124,7 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -5133,7 +5133,7 @@
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X4" s="15"/>
       <c r="Y4" s="17" t="s">
@@ -5144,10 +5144,10 @@
       <c r="AB4" s="17"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AE4" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF4" s="26"/>
       <c r="AG4" s="26"/>
@@ -5166,12 +5166,12 @@
       <c r="AL4" s="21"/>
       <c r="AM4" s="21"/>
       <c r="AN4" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>41</v>
@@ -5204,7 +5204,7 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -5213,7 +5213,7 @@
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="X5" s="15"/>
       <c r="Y5" s="17" t="s">
@@ -5224,10 +5224,10 @@
       <c r="AB5" s="17"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AE5" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF5" s="26"/>
       <c r="AG5" s="26"/>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>41</v>
@@ -5284,7 +5284,7 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -5293,7 +5293,7 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X6" s="15"/>
       <c r="Y6" s="17" t="s">
@@ -5304,10 +5304,10 @@
       <c r="AB6" s="17"/>
       <c r="AC6" s="17"/>
       <c r="AD6" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AE6" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF6" s="26"/>
       <c r="AG6" s="26"/>

--- a/tests/DATA/AllState.xlsx
+++ b/tests/DATA/AllState.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avelm\Desktop\RESTD Jenkins\tests\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1986661F-FD8F-40AA-9533-AFE039282097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22426C36-E15D-429D-8392-9D7B138EF957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/tests/DATA/AllState.xlsx
+++ b/tests/DATA/AllState.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avelm\Desktop\RESTD Jenkins\tests\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22426C36-E15D-429D-8392-9D7B138EF957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC86386-7AEE-497D-BB57-19FD07D6DC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2508" yWindow="2508" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RESDT" sheetId="1" r:id="rId1"/>
@@ -1260,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/tests/DATA/AllState.xlsx
+++ b/tests/DATA/AllState.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avelm\Desktop\RESTD Jenkins\tests\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC86386-7AEE-497D-BB57-19FD07D6DC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BEF323-315E-4A3F-9E6E-BCA27AE9D5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2508" yWindow="2508" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RESDT" sheetId="1" r:id="rId1"/>
@@ -236,9 +236,6 @@
     <t>Silver Test</t>
   </si>
   <si>
-    <t>123 Connecticut CT</t>
-  </si>
-  <si>
     <t>52528</t>
   </si>
   <si>
@@ -780,6 +777,9 @@
   </si>
   <si>
     <t>123 wyoming wy usa wy</t>
+  </si>
+  <si>
+    <t>connecticut</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1261,7 @@
   <dimension ref="A1:AU42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1669,7 +1669,7 @@
         <v>46</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>69</v>
+        <v>250</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -1711,15 +1711,15 @@
       <c r="AL5" s="21"/>
       <c r="AM5" s="21"/>
       <c r="AN5" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU5" s="23" t="s">
         <v>70</v>
-      </c>
-      <c r="AU5" s="23" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>41</v>
@@ -1731,7 +1731,7 @@
         <v>43</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" s="11">
         <v>46027</v>
@@ -1746,7 +1746,7 @@
         <v>46</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -1788,15 +1788,15 @@
       <c r="AL6" s="21"/>
       <c r="AM6" s="21"/>
       <c r="AN6" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU6" s="27" t="s">
         <v>74</v>
-      </c>
-      <c r="AU6" s="27" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>41</v>
@@ -1808,7 +1808,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="11">
         <v>46027</v>
@@ -1823,7 +1823,7 @@
         <v>46</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
@@ -1865,15 +1865,15 @@
       <c r="AL7" s="21"/>
       <c r="AM7" s="21"/>
       <c r="AN7" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AU7" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>41</v>
@@ -1885,7 +1885,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" s="28">
         <v>46027</v>
@@ -1900,7 +1900,7 @@
         <v>46</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -1942,15 +1942,15 @@
       <c r="AL8" s="21"/>
       <c r="AM8" s="21"/>
       <c r="AN8" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AU8" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>41</v>
@@ -1962,7 +1962,7 @@
         <v>43</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" s="11">
         <v>46027</v>
@@ -1977,7 +1977,7 @@
         <v>46</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
@@ -2019,15 +2019,15 @@
       <c r="AL9" s="21"/>
       <c r="AM9" s="21"/>
       <c r="AN9" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AU9" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>41</v>
@@ -2039,7 +2039,7 @@
         <v>43</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" s="28">
         <v>46027</v>
@@ -2054,7 +2054,7 @@
         <v>46</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
@@ -2082,7 +2082,7 @@
       <c r="AF10" s="26"/>
       <c r="AG10" s="26"/>
       <c r="AH10" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI10" s="20" t="s">
         <v>53</v>
@@ -2096,15 +2096,15 @@
       <c r="AL10" s="21"/>
       <c r="AM10" s="21"/>
       <c r="AN10" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AU10" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>41</v>
@@ -2116,7 +2116,7 @@
         <v>43</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" s="11">
         <v>46027</v>
@@ -2131,7 +2131,7 @@
         <v>46</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
@@ -2173,15 +2173,15 @@
       <c r="AL11" s="21"/>
       <c r="AM11" s="21"/>
       <c r="AN11" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AU11" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>41</v>
@@ -2193,7 +2193,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="28">
         <v>46027</v>
@@ -2208,7 +2208,7 @@
         <v>46</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
@@ -2250,15 +2250,15 @@
       <c r="AL12" s="21"/>
       <c r="AM12" s="21"/>
       <c r="AN12" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AU12" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>41</v>
@@ -2270,7 +2270,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13" s="11">
         <v>46027</v>
@@ -2285,7 +2285,7 @@
         <v>46</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
@@ -2327,15 +2327,15 @@
       <c r="AL13" s="21"/>
       <c r="AM13" s="21"/>
       <c r="AN13" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AU13" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>41</v>
@@ -2347,7 +2347,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F14" s="28">
         <v>46027</v>
@@ -2362,7 +2362,7 @@
         <v>46</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
@@ -2404,15 +2404,15 @@
       <c r="AL14" s="21"/>
       <c r="AM14" s="21"/>
       <c r="AN14" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU14" s="27" t="s">
         <v>108</v>
-      </c>
-      <c r="AU14" s="27" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>41</v>
@@ -2424,7 +2424,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F15" s="11">
         <v>46027</v>
@@ -2439,7 +2439,7 @@
         <v>46</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
@@ -2481,15 +2481,15 @@
       <c r="AL15" s="21"/>
       <c r="AM15" s="21"/>
       <c r="AN15" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU15" s="23" t="s">
         <v>113</v>
-      </c>
-      <c r="AU15" s="23" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>41</v>
@@ -2501,7 +2501,7 @@
         <v>43</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F16" s="28">
         <v>46027</v>
@@ -2516,7 +2516,7 @@
         <v>46</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
@@ -2544,7 +2544,7 @@
       <c r="AF16" s="26"/>
       <c r="AG16" s="26"/>
       <c r="AH16" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI16" s="20" t="s">
         <v>53</v>
@@ -2558,15 +2558,15 @@
       <c r="AL16" s="21"/>
       <c r="AM16" s="21"/>
       <c r="AN16" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AU16" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>41</v>
@@ -2578,7 +2578,7 @@
         <v>43</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F17" s="11">
         <v>46027</v>
@@ -2593,7 +2593,7 @@
         <v>46</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
@@ -2635,15 +2635,15 @@
       <c r="AL17" s="21"/>
       <c r="AM17" s="21"/>
       <c r="AN17" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AU17" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>41</v>
@@ -2655,7 +2655,7 @@
         <v>43</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F18" s="28">
         <v>46027</v>
@@ -2670,7 +2670,7 @@
         <v>46</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
@@ -2712,15 +2712,15 @@
       <c r="AL18" s="21"/>
       <c r="AM18" s="21"/>
       <c r="AN18" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AU18" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>41</v>
@@ -2732,7 +2732,7 @@
         <v>43</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F19" s="11">
         <v>46027</v>
@@ -2747,7 +2747,7 @@
         <v>46</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
@@ -2789,15 +2789,15 @@
       <c r="AL19" s="21"/>
       <c r="AM19" s="21"/>
       <c r="AN19" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AU19" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>41</v>
@@ -2809,7 +2809,7 @@
         <v>43</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F20" s="28">
         <v>46027</v>
@@ -2824,7 +2824,7 @@
         <v>46</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
@@ -2852,7 +2852,7 @@
       <c r="AF20" s="26"/>
       <c r="AG20" s="26"/>
       <c r="AH20" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI20" s="20" t="s">
         <v>53</v>
@@ -2866,15 +2866,15 @@
       <c r="AL20" s="21"/>
       <c r="AM20" s="21"/>
       <c r="AN20" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AU20" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>41</v>
@@ -2886,7 +2886,7 @@
         <v>43</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F21" s="11">
         <v>46027</v>
@@ -2901,7 +2901,7 @@
         <v>46</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
@@ -2929,7 +2929,7 @@
       <c r="AF21" s="26"/>
       <c r="AG21" s="26"/>
       <c r="AH21" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AI21" s="20" t="s">
         <v>53</v>
@@ -2943,15 +2943,15 @@
       <c r="AL21" s="21"/>
       <c r="AM21" s="21"/>
       <c r="AN21" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AU21" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>41</v>
@@ -2963,7 +2963,7 @@
         <v>43</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F22" s="11">
         <v>46027</v>
@@ -2978,7 +2978,7 @@
         <v>46</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
@@ -3006,7 +3006,7 @@
       <c r="AF22" s="26"/>
       <c r="AG22" s="26"/>
       <c r="AH22" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AI22" s="20" t="s">
         <v>53</v>
@@ -3020,15 +3020,15 @@
       <c r="AL22" s="21"/>
       <c r="AM22" s="21"/>
       <c r="AN22" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AU22" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>41</v>
@@ -3040,7 +3040,7 @@
         <v>43</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F23" s="28">
         <v>46027</v>
@@ -3055,7 +3055,7 @@
         <v>46</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
@@ -3083,7 +3083,7 @@
       <c r="AF23" s="26"/>
       <c r="AG23" s="26"/>
       <c r="AH23" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI23" s="20" t="s">
         <v>53</v>
@@ -3097,15 +3097,15 @@
       <c r="AL23" s="21"/>
       <c r="AM23" s="21"/>
       <c r="AN23" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU23" s="27" t="s">
         <v>147</v>
-      </c>
-      <c r="AU23" s="27" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>41</v>
@@ -3117,7 +3117,7 @@
         <v>43</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F24" s="11">
         <v>46027</v>
@@ -3132,7 +3132,7 @@
         <v>46</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
@@ -3174,15 +3174,15 @@
       <c r="AL24" s="21"/>
       <c r="AM24" s="21"/>
       <c r="AN24" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AU24" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>41</v>
@@ -3194,7 +3194,7 @@
         <v>43</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F25" s="11">
         <v>46027</v>
@@ -3209,7 +3209,7 @@
         <v>46</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
@@ -3240,26 +3240,26 @@
         <v>52</v>
       </c>
       <c r="AI25" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AJ25" s="21" t="s">
         <v>65</v>
       </c>
       <c r="AK25" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AL25" s="21"/>
       <c r="AM25" s="21"/>
       <c r="AN25" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AU25" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B26" s="24" t="s">
         <v>41</v>
@@ -3271,7 +3271,7 @@
         <v>43</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F26" s="28">
         <v>46027</v>
@@ -3286,7 +3286,7 @@
         <v>46</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
@@ -3314,7 +3314,7 @@
       <c r="AF26" s="26"/>
       <c r="AG26" s="26"/>
       <c r="AH26" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI26" s="20" t="s">
         <v>53</v>
@@ -3328,15 +3328,15 @@
       <c r="AL26" s="21"/>
       <c r="AM26" s="21"/>
       <c r="AN26" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AU26" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>41</v>
@@ -3348,7 +3348,7 @@
         <v>43</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F27" s="11">
         <v>46027</v>
@@ -3363,7 +3363,7 @@
         <v>46</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
@@ -3405,15 +3405,15 @@
       <c r="AL27" s="21"/>
       <c r="AM27" s="21"/>
       <c r="AN27" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU27" s="27" t="s">
         <v>166</v>
-      </c>
-      <c r="AU27" s="27" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>41</v>
@@ -3425,7 +3425,7 @@
         <v>43</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F28" s="28">
         <v>46027</v>
@@ -3440,7 +3440,7 @@
         <v>46</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
@@ -3482,15 +3482,15 @@
       <c r="AL28" s="21"/>
       <c r="AM28" s="21"/>
       <c r="AN28" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AU28" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>41</v>
@@ -3502,7 +3502,7 @@
         <v>43</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F29" s="11">
         <v>46027</v>
@@ -3517,7 +3517,7 @@
         <v>46</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
@@ -3559,15 +3559,15 @@
       <c r="AL29" s="21"/>
       <c r="AM29" s="21"/>
       <c r="AN29" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AU29" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>41</v>
@@ -3579,7 +3579,7 @@
         <v>43</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F30" s="28">
         <v>46027</v>
@@ -3594,7 +3594,7 @@
         <v>46</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
@@ -3622,7 +3622,7 @@
       <c r="AF30" s="26"/>
       <c r="AG30" s="26"/>
       <c r="AH30" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI30" s="20" t="s">
         <v>53</v>
@@ -3636,15 +3636,15 @@
       <c r="AL30" s="21"/>
       <c r="AM30" s="21"/>
       <c r="AN30" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AU30" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>41</v>
@@ -3656,7 +3656,7 @@
         <v>43</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F31" s="11">
         <v>46027</v>
@@ -3671,7 +3671,7 @@
         <v>46</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
@@ -3713,15 +3713,15 @@
       <c r="AL31" s="21"/>
       <c r="AM31" s="21"/>
       <c r="AN31" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AU31" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>41</v>
@@ -3733,7 +3733,7 @@
         <v>43</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F32" s="28">
         <v>46027</v>
@@ -3748,7 +3748,7 @@
         <v>46</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
@@ -3790,15 +3790,15 @@
       <c r="AL32" s="21"/>
       <c r="AM32" s="21"/>
       <c r="AN32" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AU32" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>41</v>
@@ -3810,7 +3810,7 @@
         <v>43</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F33" s="11">
         <v>46027</v>
@@ -3825,7 +3825,7 @@
         <v>46</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
@@ -3867,15 +3867,15 @@
       <c r="AL33" s="21"/>
       <c r="AM33" s="21"/>
       <c r="AN33" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AU33" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>41</v>
@@ -3887,7 +3887,7 @@
         <v>43</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F34" s="28">
         <v>46027</v>
@@ -3902,7 +3902,7 @@
         <v>46</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
@@ -3930,7 +3930,7 @@
       <c r="AF34" s="26"/>
       <c r="AG34" s="26"/>
       <c r="AH34" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI34" s="20" t="s">
         <v>53</v>
@@ -3944,15 +3944,15 @@
       <c r="AL34" s="21"/>
       <c r="AM34" s="21"/>
       <c r="AN34" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AU34" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>41</v>
@@ -3964,7 +3964,7 @@
         <v>43</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F35" s="11">
         <v>46027</v>
@@ -3979,7 +3979,7 @@
         <v>46</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
@@ -4021,15 +4021,15 @@
       <c r="AL35" s="21"/>
       <c r="AM35" s="21"/>
       <c r="AN35" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AU35" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>41</v>
@@ -4041,7 +4041,7 @@
         <v>43</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F36" s="28">
         <v>46027</v>
@@ -4056,7 +4056,7 @@
         <v>46</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
@@ -4098,15 +4098,15 @@
       <c r="AL36" s="21"/>
       <c r="AM36" s="21"/>
       <c r="AN36" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AU36" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>41</v>
@@ -4118,7 +4118,7 @@
         <v>43</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F37" s="11">
         <v>46027</v>
@@ -4133,7 +4133,7 @@
         <v>46</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
@@ -4175,15 +4175,15 @@
       <c r="AL37" s="21"/>
       <c r="AM37" s="21"/>
       <c r="AN37" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AU37" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>41</v>
@@ -4195,7 +4195,7 @@
         <v>43</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F38" s="28">
         <v>46027</v>
@@ -4210,7 +4210,7 @@
         <v>46</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
@@ -4238,7 +4238,7 @@
       <c r="AF38" s="26"/>
       <c r="AG38" s="26"/>
       <c r="AH38" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI38" s="20" t="s">
         <v>53</v>
@@ -4252,15 +4252,15 @@
       <c r="AL38" s="21"/>
       <c r="AM38" s="21"/>
       <c r="AN38" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AU38" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>41</v>
@@ -4272,7 +4272,7 @@
         <v>43</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F39" s="11">
         <v>46027</v>
@@ -4287,7 +4287,7 @@
         <v>46</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
@@ -4329,15 +4329,15 @@
       <c r="AL39" s="21"/>
       <c r="AM39" s="21"/>
       <c r="AN39" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AU39" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>41</v>
@@ -4349,7 +4349,7 @@
         <v>43</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F40" s="28">
         <v>46027</v>
@@ -4364,7 +4364,7 @@
         <v>46</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
@@ -4406,15 +4406,15 @@
       <c r="AL40" s="21"/>
       <c r="AM40" s="21"/>
       <c r="AN40" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AU40" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B41" s="24" t="s">
         <v>41</v>
@@ -4426,7 +4426,7 @@
         <v>43</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F41" s="11">
         <v>46027</v>
@@ -4441,7 +4441,7 @@
         <v>46</v>
       </c>
       <c r="P41" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
@@ -4483,15 +4483,15 @@
       <c r="AL41" s="21"/>
       <c r="AM41" s="21"/>
       <c r="AN41" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AU41" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>41</v>
@@ -4503,7 +4503,7 @@
         <v>43</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F42" s="28">
         <v>46027</v>
@@ -4518,7 +4518,7 @@
         <v>46</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q42" s="30"/>
       <c r="R42" s="30"/>
@@ -4527,7 +4527,7 @@
       <c r="U42" s="30"/>
       <c r="V42" s="30"/>
       <c r="W42" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X42" s="17"/>
       <c r="Y42" s="17" t="s">
@@ -4538,15 +4538,15 @@
       <c r="AB42" s="17"/>
       <c r="AC42" s="17"/>
       <c r="AD42" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE42" s="18" t="s">
         <v>227</v>
-      </c>
-      <c r="AE42" s="18" t="s">
-        <v>228</v>
       </c>
       <c r="AF42" s="26"/>
       <c r="AG42" s="26"/>
       <c r="AH42" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI42" s="20" t="s">
         <v>53</v>
@@ -4560,10 +4560,10 @@
       <c r="AL42" s="31"/>
       <c r="AM42" s="31"/>
       <c r="AN42" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AU42" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>41</v>
@@ -4722,7 +4722,7 @@
         <v>43</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F2" s="11">
         <v>46027</v>
@@ -4743,7 +4743,7 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
@@ -4785,7 +4785,7 @@
       <c r="AL2" s="21"/>
       <c r="AM2" s="21"/>
       <c r="AN2" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4931,7 +4931,7 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>41</v>
@@ -4943,7 +4943,7 @@
         <v>43</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F2" s="11">
         <v>46031</v>
@@ -4964,7 +4964,7 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
@@ -4973,7 +4973,7 @@
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X2" s="15"/>
       <c r="Y2" s="17" t="s">
@@ -4984,10 +4984,10 @@
       <c r="AB2" s="17"/>
       <c r="AC2" s="17"/>
       <c r="AD2" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AE2" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF2" s="26"/>
       <c r="AG2" s="26"/>
@@ -4998,7 +4998,7 @@
         <v>53</v>
       </c>
       <c r="AJ2" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AK2" s="21" t="s">
         <v>55</v>
@@ -5006,12 +5006,12 @@
       <c r="AL2" s="21"/>
       <c r="AM2" s="21"/>
       <c r="AN2" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>41</v>
@@ -5023,7 +5023,7 @@
         <v>43</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F3" s="11">
         <v>46031</v>
@@ -5044,7 +5044,7 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -5053,7 +5053,7 @@
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X3" s="15"/>
       <c r="Y3" s="17" t="s">
@@ -5064,10 +5064,10 @@
       <c r="AB3" s="17"/>
       <c r="AC3" s="17"/>
       <c r="AD3" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AE3" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF3" s="26"/>
       <c r="AG3" s="26"/>
@@ -5086,12 +5086,12 @@
       <c r="AL3" s="21"/>
       <c r="AM3" s="21"/>
       <c r="AN3" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>41</v>
@@ -5103,7 +5103,7 @@
         <v>43</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F4" s="11">
         <v>46031</v>
@@ -5124,7 +5124,7 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -5133,7 +5133,7 @@
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X4" s="15"/>
       <c r="Y4" s="17" t="s">
@@ -5144,10 +5144,10 @@
       <c r="AB4" s="17"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AE4" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF4" s="26"/>
       <c r="AG4" s="26"/>
@@ -5166,12 +5166,12 @@
       <c r="AL4" s="21"/>
       <c r="AM4" s="21"/>
       <c r="AN4" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>41</v>
@@ -5183,7 +5183,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F5" s="11">
         <v>46031</v>
@@ -5204,7 +5204,7 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -5213,7 +5213,7 @@
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X5" s="15"/>
       <c r="Y5" s="17" t="s">
@@ -5224,10 +5224,10 @@
       <c r="AB5" s="17"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AE5" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF5" s="26"/>
       <c r="AG5" s="26"/>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>41</v>
@@ -5263,7 +5263,7 @@
         <v>43</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F6" s="11">
         <v>46031</v>
@@ -5284,7 +5284,7 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -5293,7 +5293,7 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="X6" s="15"/>
       <c r="Y6" s="17" t="s">
@@ -5304,10 +5304,10 @@
       <c r="AB6" s="17"/>
       <c r="AC6" s="17"/>
       <c r="AD6" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AE6" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF6" s="26"/>
       <c r="AG6" s="26"/>

--- a/tests/DATA/AllState.xlsx
+++ b/tests/DATA/AllState.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avelm\Desktop\RESTD Jenkins\tests\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BEF323-315E-4A3F-9E6E-BCA27AE9D5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2A9B8F-89A7-4D0B-B29F-E716CCEA4619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -779,7 +779,7 @@
     <t>123 wyoming wy usa wy</t>
   </si>
   <si>
-    <t>connecticut</t>
+    <t>123 connecticut ct usa ct</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1261,7 @@
   <dimension ref="A1:AU42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/tests/DATA/AllState.xlsx
+++ b/tests/DATA/AllState.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avelm\Desktop\RESTD Jenkins\tests\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2A9B8F-89A7-4D0B-B29F-E716CCEA4619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F589E21-7BD0-449C-A27A-E3F331AB022C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,9 +245,6 @@
     <t>DE</t>
   </si>
   <si>
-    <t>123 Delaware DE</t>
-  </si>
-  <si>
     <t>52529</t>
   </si>
   <si>
@@ -780,6 +777,9 @@
   </si>
   <si>
     <t>123 connecticut ct usa ct</t>
+  </si>
+  <si>
+    <t>123 Delaware DE usa de</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1261,7 @@
   <dimension ref="A1:AU42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1669,7 +1669,7 @@
         <v>46</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -1746,7 +1746,7 @@
         <v>46</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>72</v>
+        <v>250</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -1788,15 +1788,15 @@
       <c r="AL6" s="21"/>
       <c r="AM6" s="21"/>
       <c r="AN6" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU6" s="27" t="s">
         <v>73</v>
-      </c>
-      <c r="AU6" s="27" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>41</v>
@@ -1808,7 +1808,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="11">
         <v>46027</v>
@@ -1823,7 +1823,7 @@
         <v>46</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
@@ -1865,15 +1865,15 @@
       <c r="AL7" s="21"/>
       <c r="AM7" s="21"/>
       <c r="AN7" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AU7" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>41</v>
@@ -1885,7 +1885,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" s="28">
         <v>46027</v>
@@ -1900,7 +1900,7 @@
         <v>46</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -1942,15 +1942,15 @@
       <c r="AL8" s="21"/>
       <c r="AM8" s="21"/>
       <c r="AN8" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU8" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>41</v>
@@ -1962,7 +1962,7 @@
         <v>43</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="11">
         <v>46027</v>
@@ -1977,7 +1977,7 @@
         <v>46</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
@@ -2019,15 +2019,15 @@
       <c r="AL9" s="21"/>
       <c r="AM9" s="21"/>
       <c r="AN9" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AU9" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>41</v>
@@ -2039,7 +2039,7 @@
         <v>43</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10" s="28">
         <v>46027</v>
@@ -2054,7 +2054,7 @@
         <v>46</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
@@ -2082,7 +2082,7 @@
       <c r="AF10" s="26"/>
       <c r="AG10" s="26"/>
       <c r="AH10" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI10" s="20" t="s">
         <v>53</v>
@@ -2096,15 +2096,15 @@
       <c r="AL10" s="21"/>
       <c r="AM10" s="21"/>
       <c r="AN10" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AU10" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>41</v>
@@ -2116,7 +2116,7 @@
         <v>43</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F11" s="11">
         <v>46027</v>
@@ -2131,7 +2131,7 @@
         <v>46</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
@@ -2173,15 +2173,15 @@
       <c r="AL11" s="21"/>
       <c r="AM11" s="21"/>
       <c r="AN11" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AU11" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>41</v>
@@ -2193,7 +2193,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12" s="28">
         <v>46027</v>
@@ -2208,7 +2208,7 @@
         <v>46</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
@@ -2250,15 +2250,15 @@
       <c r="AL12" s="21"/>
       <c r="AM12" s="21"/>
       <c r="AN12" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AU12" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>41</v>
@@ -2270,7 +2270,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" s="11">
         <v>46027</v>
@@ -2285,7 +2285,7 @@
         <v>46</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
@@ -2327,15 +2327,15 @@
       <c r="AL13" s="21"/>
       <c r="AM13" s="21"/>
       <c r="AN13" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AU13" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>41</v>
@@ -2347,7 +2347,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F14" s="28">
         <v>46027</v>
@@ -2362,7 +2362,7 @@
         <v>46</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
@@ -2404,15 +2404,15 @@
       <c r="AL14" s="21"/>
       <c r="AM14" s="21"/>
       <c r="AN14" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU14" s="27" t="s">
         <v>107</v>
-      </c>
-      <c r="AU14" s="27" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>41</v>
@@ -2424,7 +2424,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F15" s="11">
         <v>46027</v>
@@ -2439,7 +2439,7 @@
         <v>46</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
@@ -2481,15 +2481,15 @@
       <c r="AL15" s="21"/>
       <c r="AM15" s="21"/>
       <c r="AN15" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU15" s="23" t="s">
         <v>112</v>
-      </c>
-      <c r="AU15" s="23" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>41</v>
@@ -2501,7 +2501,7 @@
         <v>43</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F16" s="28">
         <v>46027</v>
@@ -2516,7 +2516,7 @@
         <v>46</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
@@ -2544,7 +2544,7 @@
       <c r="AF16" s="26"/>
       <c r="AG16" s="26"/>
       <c r="AH16" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI16" s="20" t="s">
         <v>53</v>
@@ -2558,15 +2558,15 @@
       <c r="AL16" s="21"/>
       <c r="AM16" s="21"/>
       <c r="AN16" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AU16" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>41</v>
@@ -2578,7 +2578,7 @@
         <v>43</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F17" s="11">
         <v>46027</v>
@@ -2593,7 +2593,7 @@
         <v>46</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
@@ -2635,15 +2635,15 @@
       <c r="AL17" s="21"/>
       <c r="AM17" s="21"/>
       <c r="AN17" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AU17" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>41</v>
@@ -2655,7 +2655,7 @@
         <v>43</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18" s="28">
         <v>46027</v>
@@ -2670,7 +2670,7 @@
         <v>46</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
@@ -2712,15 +2712,15 @@
       <c r="AL18" s="21"/>
       <c r="AM18" s="21"/>
       <c r="AN18" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AU18" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>41</v>
@@ -2732,7 +2732,7 @@
         <v>43</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F19" s="11">
         <v>46027</v>
@@ -2747,7 +2747,7 @@
         <v>46</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
@@ -2789,15 +2789,15 @@
       <c r="AL19" s="21"/>
       <c r="AM19" s="21"/>
       <c r="AN19" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AU19" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>41</v>
@@ -2809,7 +2809,7 @@
         <v>43</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F20" s="28">
         <v>46027</v>
@@ -2824,7 +2824,7 @@
         <v>46</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
@@ -2852,7 +2852,7 @@
       <c r="AF20" s="26"/>
       <c r="AG20" s="26"/>
       <c r="AH20" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI20" s="20" t="s">
         <v>53</v>
@@ -2866,15 +2866,15 @@
       <c r="AL20" s="21"/>
       <c r="AM20" s="21"/>
       <c r="AN20" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AU20" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>41</v>
@@ -2886,7 +2886,7 @@
         <v>43</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F21" s="11">
         <v>46027</v>
@@ -2901,7 +2901,7 @@
         <v>46</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
@@ -2929,7 +2929,7 @@
       <c r="AF21" s="26"/>
       <c r="AG21" s="26"/>
       <c r="AH21" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AI21" s="20" t="s">
         <v>53</v>
@@ -2943,15 +2943,15 @@
       <c r="AL21" s="21"/>
       <c r="AM21" s="21"/>
       <c r="AN21" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AU21" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>41</v>
@@ -2963,7 +2963,7 @@
         <v>43</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F22" s="11">
         <v>46027</v>
@@ -2978,7 +2978,7 @@
         <v>46</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
@@ -3006,7 +3006,7 @@
       <c r="AF22" s="26"/>
       <c r="AG22" s="26"/>
       <c r="AH22" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AI22" s="20" t="s">
         <v>53</v>
@@ -3020,15 +3020,15 @@
       <c r="AL22" s="21"/>
       <c r="AM22" s="21"/>
       <c r="AN22" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AU22" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>41</v>
@@ -3040,7 +3040,7 @@
         <v>43</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F23" s="28">
         <v>46027</v>
@@ -3055,7 +3055,7 @@
         <v>46</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
@@ -3083,7 +3083,7 @@
       <c r="AF23" s="26"/>
       <c r="AG23" s="26"/>
       <c r="AH23" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI23" s="20" t="s">
         <v>53</v>
@@ -3097,15 +3097,15 @@
       <c r="AL23" s="21"/>
       <c r="AM23" s="21"/>
       <c r="AN23" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU23" s="27" t="s">
         <v>146</v>
-      </c>
-      <c r="AU23" s="27" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>41</v>
@@ -3117,7 +3117,7 @@
         <v>43</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F24" s="11">
         <v>46027</v>
@@ -3132,7 +3132,7 @@
         <v>46</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
@@ -3174,15 +3174,15 @@
       <c r="AL24" s="21"/>
       <c r="AM24" s="21"/>
       <c r="AN24" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AU24" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>41</v>
@@ -3194,7 +3194,7 @@
         <v>43</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F25" s="11">
         <v>46027</v>
@@ -3209,7 +3209,7 @@
         <v>46</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
@@ -3240,26 +3240,26 @@
         <v>52</v>
       </c>
       <c r="AI25" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AJ25" s="21" t="s">
         <v>65</v>
       </c>
       <c r="AK25" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL25" s="21"/>
       <c r="AM25" s="21"/>
       <c r="AN25" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AU25" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B26" s="24" t="s">
         <v>41</v>
@@ -3271,7 +3271,7 @@
         <v>43</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F26" s="28">
         <v>46027</v>
@@ -3286,7 +3286,7 @@
         <v>46</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
@@ -3314,7 +3314,7 @@
       <c r="AF26" s="26"/>
       <c r="AG26" s="26"/>
       <c r="AH26" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI26" s="20" t="s">
         <v>53</v>
@@ -3328,15 +3328,15 @@
       <c r="AL26" s="21"/>
       <c r="AM26" s="21"/>
       <c r="AN26" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AU26" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>41</v>
@@ -3348,7 +3348,7 @@
         <v>43</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F27" s="11">
         <v>46027</v>
@@ -3363,7 +3363,7 @@
         <v>46</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
@@ -3405,15 +3405,15 @@
       <c r="AL27" s="21"/>
       <c r="AM27" s="21"/>
       <c r="AN27" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU27" s="27" t="s">
         <v>165</v>
-      </c>
-      <c r="AU27" s="27" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>41</v>
@@ -3425,7 +3425,7 @@
         <v>43</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F28" s="28">
         <v>46027</v>
@@ -3440,7 +3440,7 @@
         <v>46</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
@@ -3482,15 +3482,15 @@
       <c r="AL28" s="21"/>
       <c r="AM28" s="21"/>
       <c r="AN28" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AU28" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>41</v>
@@ -3502,7 +3502,7 @@
         <v>43</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F29" s="11">
         <v>46027</v>
@@ -3517,7 +3517,7 @@
         <v>46</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
@@ -3559,15 +3559,15 @@
       <c r="AL29" s="21"/>
       <c r="AM29" s="21"/>
       <c r="AN29" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AU29" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>41</v>
@@ -3579,7 +3579,7 @@
         <v>43</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F30" s="28">
         <v>46027</v>
@@ -3594,7 +3594,7 @@
         <v>46</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
@@ -3622,7 +3622,7 @@
       <c r="AF30" s="26"/>
       <c r="AG30" s="26"/>
       <c r="AH30" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI30" s="20" t="s">
         <v>53</v>
@@ -3636,15 +3636,15 @@
       <c r="AL30" s="21"/>
       <c r="AM30" s="21"/>
       <c r="AN30" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AU30" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>41</v>
@@ -3656,7 +3656,7 @@
         <v>43</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F31" s="11">
         <v>46027</v>
@@ -3671,7 +3671,7 @@
         <v>46</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
@@ -3713,15 +3713,15 @@
       <c r="AL31" s="21"/>
       <c r="AM31" s="21"/>
       <c r="AN31" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AU31" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>41</v>
@@ -3733,7 +3733,7 @@
         <v>43</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F32" s="28">
         <v>46027</v>
@@ -3748,7 +3748,7 @@
         <v>46</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
@@ -3790,15 +3790,15 @@
       <c r="AL32" s="21"/>
       <c r="AM32" s="21"/>
       <c r="AN32" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AU32" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>41</v>
@@ -3810,7 +3810,7 @@
         <v>43</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F33" s="11">
         <v>46027</v>
@@ -3825,7 +3825,7 @@
         <v>46</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
@@ -3867,15 +3867,15 @@
       <c r="AL33" s="21"/>
       <c r="AM33" s="21"/>
       <c r="AN33" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AU33" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>41</v>
@@ -3887,7 +3887,7 @@
         <v>43</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F34" s="28">
         <v>46027</v>
@@ -3902,7 +3902,7 @@
         <v>46</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
@@ -3930,7 +3930,7 @@
       <c r="AF34" s="26"/>
       <c r="AG34" s="26"/>
       <c r="AH34" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI34" s="20" t="s">
         <v>53</v>
@@ -3944,15 +3944,15 @@
       <c r="AL34" s="21"/>
       <c r="AM34" s="21"/>
       <c r="AN34" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AU34" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>41</v>
@@ -3964,7 +3964,7 @@
         <v>43</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F35" s="11">
         <v>46027</v>
@@ -3979,7 +3979,7 @@
         <v>46</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
@@ -4021,15 +4021,15 @@
       <c r="AL35" s="21"/>
       <c r="AM35" s="21"/>
       <c r="AN35" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AU35" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>41</v>
@@ -4041,7 +4041,7 @@
         <v>43</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F36" s="28">
         <v>46027</v>
@@ -4056,7 +4056,7 @@
         <v>46</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
@@ -4098,15 +4098,15 @@
       <c r="AL36" s="21"/>
       <c r="AM36" s="21"/>
       <c r="AN36" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AU36" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>41</v>
@@ -4118,7 +4118,7 @@
         <v>43</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F37" s="11">
         <v>46027</v>
@@ -4133,7 +4133,7 @@
         <v>46</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
@@ -4175,15 +4175,15 @@
       <c r="AL37" s="21"/>
       <c r="AM37" s="21"/>
       <c r="AN37" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AU37" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>41</v>
@@ -4195,7 +4195,7 @@
         <v>43</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F38" s="28">
         <v>46027</v>
@@ -4210,7 +4210,7 @@
         <v>46</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
@@ -4238,7 +4238,7 @@
       <c r="AF38" s="26"/>
       <c r="AG38" s="26"/>
       <c r="AH38" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI38" s="20" t="s">
         <v>53</v>
@@ -4252,15 +4252,15 @@
       <c r="AL38" s="21"/>
       <c r="AM38" s="21"/>
       <c r="AN38" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AU38" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>41</v>
@@ -4272,7 +4272,7 @@
         <v>43</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F39" s="11">
         <v>46027</v>
@@ -4287,7 +4287,7 @@
         <v>46</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
@@ -4329,15 +4329,15 @@
       <c r="AL39" s="21"/>
       <c r="AM39" s="21"/>
       <c r="AN39" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AU39" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>41</v>
@@ -4349,7 +4349,7 @@
         <v>43</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F40" s="28">
         <v>46027</v>
@@ -4364,7 +4364,7 @@
         <v>46</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
@@ -4406,15 +4406,15 @@
       <c r="AL40" s="21"/>
       <c r="AM40" s="21"/>
       <c r="AN40" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AU40" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B41" s="24" t="s">
         <v>41</v>
@@ -4426,7 +4426,7 @@
         <v>43</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F41" s="11">
         <v>46027</v>
@@ -4441,7 +4441,7 @@
         <v>46</v>
       </c>
       <c r="P41" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
@@ -4483,15 +4483,15 @@
       <c r="AL41" s="21"/>
       <c r="AM41" s="21"/>
       <c r="AN41" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AU41" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>41</v>
@@ -4503,7 +4503,7 @@
         <v>43</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F42" s="28">
         <v>46027</v>
@@ -4518,7 +4518,7 @@
         <v>46</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q42" s="30"/>
       <c r="R42" s="30"/>
@@ -4527,7 +4527,7 @@
       <c r="U42" s="30"/>
       <c r="V42" s="30"/>
       <c r="W42" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X42" s="17"/>
       <c r="Y42" s="17" t="s">
@@ -4538,15 +4538,15 @@
       <c r="AB42" s="17"/>
       <c r="AC42" s="17"/>
       <c r="AD42" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE42" s="18" t="s">
         <v>226</v>
-      </c>
-      <c r="AE42" s="18" t="s">
-        <v>227</v>
       </c>
       <c r="AF42" s="26"/>
       <c r="AG42" s="26"/>
       <c r="AH42" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AI42" s="20" t="s">
         <v>53</v>
@@ -4560,10 +4560,10 @@
       <c r="AL42" s="31"/>
       <c r="AM42" s="31"/>
       <c r="AN42" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AU42" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>41</v>
@@ -4722,7 +4722,7 @@
         <v>43</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F2" s="11">
         <v>46027</v>
@@ -4743,7 +4743,7 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
@@ -4785,7 +4785,7 @@
       <c r="AL2" s="21"/>
       <c r="AM2" s="21"/>
       <c r="AN2" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4931,7 +4931,7 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>41</v>
@@ -4943,7 +4943,7 @@
         <v>43</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F2" s="11">
         <v>46031</v>
@@ -4964,7 +4964,7 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
@@ -4973,7 +4973,7 @@
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X2" s="15"/>
       <c r="Y2" s="17" t="s">
@@ -4984,10 +4984,10 @@
       <c r="AB2" s="17"/>
       <c r="AC2" s="17"/>
       <c r="AD2" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AE2" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF2" s="26"/>
       <c r="AG2" s="26"/>
@@ -4998,7 +4998,7 @@
         <v>53</v>
       </c>
       <c r="AJ2" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AK2" s="21" t="s">
         <v>55</v>
@@ -5006,12 +5006,12 @@
       <c r="AL2" s="21"/>
       <c r="AM2" s="21"/>
       <c r="AN2" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>41</v>
@@ -5023,7 +5023,7 @@
         <v>43</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F3" s="11">
         <v>46031</v>
@@ -5044,7 +5044,7 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -5053,7 +5053,7 @@
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X3" s="15"/>
       <c r="Y3" s="17" t="s">
@@ -5064,10 +5064,10 @@
       <c r="AB3" s="17"/>
       <c r="AC3" s="17"/>
       <c r="AD3" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AE3" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF3" s="26"/>
       <c r="AG3" s="26"/>
@@ -5086,12 +5086,12 @@
       <c r="AL3" s="21"/>
       <c r="AM3" s="21"/>
       <c r="AN3" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>41</v>
@@ -5103,7 +5103,7 @@
         <v>43</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F4" s="11">
         <v>46031</v>
@@ -5124,7 +5124,7 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -5133,7 +5133,7 @@
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X4" s="15"/>
       <c r="Y4" s="17" t="s">
@@ -5144,10 +5144,10 @@
       <c r="AB4" s="17"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AE4" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF4" s="26"/>
       <c r="AG4" s="26"/>
@@ -5166,12 +5166,12 @@
       <c r="AL4" s="21"/>
       <c r="AM4" s="21"/>
       <c r="AN4" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>41</v>
@@ -5183,7 +5183,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F5" s="11">
         <v>46031</v>
@@ -5204,7 +5204,7 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -5213,7 +5213,7 @@
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X5" s="15"/>
       <c r="Y5" s="17" t="s">
@@ -5224,10 +5224,10 @@
       <c r="AB5" s="17"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AE5" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF5" s="26"/>
       <c r="AG5" s="26"/>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>41</v>
@@ -5263,7 +5263,7 @@
         <v>43</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F6" s="11">
         <v>46031</v>
@@ -5284,7 +5284,7 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -5293,7 +5293,7 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="X6" s="15"/>
       <c r="Y6" s="17" t="s">
@@ -5304,10 +5304,10 @@
       <c r="AB6" s="17"/>
       <c r="AC6" s="17"/>
       <c r="AD6" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AE6" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF6" s="26"/>
       <c r="AG6" s="26"/>
